--- a/dist/document/dest/2020/10/doctors/11.xlsx
+++ b/dist/document/dest/2020/10/doctors/11.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>30250</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>600</v>
       </c>
-      <c r="C3" s="1">
-        <v>4950000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>110</v>
       </c>
-      <c r="C4" s="1">
-        <v>379500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="1">
-        <v>2310000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>320</v>
       </c>
-      <c r="C6" s="1">
-        <v>1048000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>37700</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>300</v>
       </c>
-      <c r="C8" s="1">
-        <v>2244000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>555</v>
       </c>
-      <c r="C9" s="1">
-        <v>1212675</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>60</v>
       </c>
-      <c r="C10" s="1">
-        <v>587400</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>1220</v>
       </c>
-      <c r="C11" s="1">
-        <v>3147600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>120</v>
       </c>
-      <c r="C12" s="1">
-        <v>1683000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>230</v>
       </c>
-      <c r="C13" s="1">
-        <v>3289000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>350</v>
       </c>
-      <c r="C14" s="1">
-        <v>3465000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>220</v>
       </c>
-      <c r="C15" s="1">
-        <v>759000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>245</v>
       </c>
-      <c r="C16" s="1">
-        <v>1042475</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>640</v>
       </c>
-      <c r="C17" s="1">
-        <v>2022400</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>199</v>
       </c>
-      <c r="C18" s="1">
-        <v>1357180</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
-        <v>162900</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>103500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <v>3675</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>190</v>
       </c>
-      <c r="C22" s="1">
-        <v>633650</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>210</v>
       </c>
-      <c r="C23" s="1">
-        <v>2194500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>1070</v>
       </c>
-      <c r="C24" s="1">
-        <v>18125800</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>152</v>
       </c>
-      <c r="C25" s="1">
-        <v>734160</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>690</v>
       </c>
-      <c r="C26" s="1">
-        <v>3174000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>240</v>
       </c>
-      <c r="C27" s="1">
-        <v>607200</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>240</v>
       </c>
-      <c r="C28" s="1">
-        <v>5227200</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>330</v>
       </c>
-      <c r="C29" s="1">
-        <v>1138500</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>90</v>
       </c>
-      <c r="C30" s="1">
-        <v>341550</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <v>106950</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
-        <v>79350</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>1225</v>
       </c>
-      <c r="C33" s="1">
-        <v>7043750</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>1170</v>
       </c>
-      <c r="C34" s="1">
-        <v>8751600</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>40</v>
       </c>
-      <c r="C35" s="1">
-        <v>748000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>90</v>
       </c>
-      <c r="C36" s="1">
-        <v>496800</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>60</v>
       </c>
-      <c r="C37" s="1">
-        <v>349800</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>354</v>
       </c>
-      <c r="C38" s="1">
-        <v>5724180</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>440</v>
       </c>
-      <c r="C39" s="1">
-        <v>6776000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>240</v>
       </c>
-      <c r="C40" s="1">
-        <v>772800</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>430</v>
       </c>
-      <c r="C41" s="1">
-        <v>2076900</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>120</v>
       </c>
-      <c r="C42" s="1">
-        <v>220800</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>180</v>
       </c>
-      <c r="C43" s="1">
-        <v>724500</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>30</v>
       </c>
-      <c r="C44" s="1">
-        <v>138000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>240</v>
       </c>
-      <c r="C45" s="1">
-        <v>2019600</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>165</v>
       </c>
-      <c r="C46" s="1">
-        <v>1089000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>60</v>
       </c>
-      <c r="C47" s="1">
-        <v>693000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>500</v>
       </c>
-      <c r="C48" s="1">
-        <v>3245000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>60</v>
       </c>
-      <c r="C49" s="1">
-        <v>72300</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>780</v>
       </c>
-      <c r="C50" s="1">
-        <v>7207200</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>870</v>
       </c>
-      <c r="C51" s="1">
-        <v>4402200</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>30</v>
       </c>
-      <c r="C52" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>320</v>
       </c>
-      <c r="C53" s="1">
-        <v>4576000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>605</v>
       </c>
-      <c r="C54" s="1">
-        <v>6588450</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>60</v>
       </c>
-      <c r="C55" s="1">
-        <v>455400</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>120</v>
       </c>
-      <c r="C56" s="1">
-        <v>308400</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>120</v>
       </c>
-      <c r="C57" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>55</v>
       </c>
-      <c r="C58" s="1">
-        <v>4537500</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>670</v>
       </c>
-      <c r="C59" s="1">
-        <v>1618050</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>30</v>
       </c>
-      <c r="C60" s="1">
-        <v>86250</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>53</v>
       </c>
-      <c r="C61" s="1">
-        <v>4897200</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>1590</v>
       </c>
-      <c r="C62" s="1">
-        <v>7679700</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>3</v>
       </c>
-      <c r="C63" s="1">
-        <v>36900</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1087,7 +901,7 @@
         <v>19547</v>
       </c>
       <c r="C64" s="1">
-        <v>146178395</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/11.xlsx
+++ b/dist/document/dest/2020/10/doctors/11.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,514 +399,722 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Albenca 400mg (Albendazole)</v>
+        <v>Acyclovir 800mg</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>87400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alcomet (Metadoxine 500mg)</v>
+        <v>Acyclovir PM</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B4" s="1">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>280</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>117300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Betadine Anti 10% 30ml</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1386000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>300</v>
+        <v>240</v>
+      </c>
+      <c r="C8" s="1">
+        <v>786000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>555</v>
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>60</v>
+        <v>184</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1376320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>1220</v>
+        <v>155</v>
+      </c>
+      <c r="C11" s="1">
+        <v>338675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>120</v>
+        <v>510</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1315800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>841500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>350</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>214500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>245</v>
+        <v>153</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1514700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Cigenol</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>640</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>138600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B18" s="1">
-        <v>199</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B19" s="1">
-        <v>45</v>
+        <v>259</v>
+      </c>
+      <c r="C19" s="1">
+        <v>893550</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B20" s="1">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>48300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>15</v>
+        <v>195</v>
+      </c>
+      <c r="C21" s="1">
+        <v>829725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B22" s="1">
-        <v>190</v>
+        <v>460</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1453600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>210</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="1">
+        <v>886600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Esomaxcare (Esomeprazole 40mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>1070</v>
+        <v>134</v>
+      </c>
+      <c r="C24" s="1">
+        <v>446890</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B25" s="1">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>313500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B26" s="1">
-        <v>690</v>
+        <v>164</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1713800</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>240</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>338800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Goldesome (Esomeprazole 40mg)</v>
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>240</v>
+        <v>508</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8605520</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>330</v>
+        <v>180</v>
+      </c>
+      <c r="C29" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1029600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>240</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5227200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>1225</v>
+        <v>215</v>
+      </c>
+      <c r="C33" s="1">
+        <v>741750</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B34" s="1">
-        <v>1170</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B35" s="1">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>160425</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>90</v>
+        <v>700</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4025000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>60</v>
+        <v>540</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4039200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>354</v>
+        <v>120</v>
+      </c>
+      <c r="C38" s="1">
+        <v>662400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B39" s="1">
-        <v>440</v>
+        <v>222</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3589740</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>240</v>
+        <v>364</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5605600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>430</v>
+        <v>60</v>
+      </c>
+      <c r="C41" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B42" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B43" s="1">
-        <v>180</v>
+        <v>358</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1729140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>30</v>
+        <v>240</v>
+      </c>
+      <c r="C44" s="1">
+        <v>441600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>240</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Opecerin (Diacerein 50mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>165</v>
+        <v>240</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2019600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Opecerin (Diacerein 50mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>252450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B48" s="1">
-        <v>500</v>
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>14000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Pantonix (Pantoprazole 40mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C49" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Pantonix (Pantoprazole 40mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>780</v>
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
       </c>
       <c r="B51" s="1">
-        <v>870</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
       </c>
       <c r="B52" s="1">
-        <v>30</v>
+        <v>240</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1557600</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Regurgex (Domperidone 10mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>320</v>
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>36150</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>605</v>
+        <v>75</v>
+      </c>
+      <c r="C54" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>60</v>
+        <v>564</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5211360</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
       </c>
       <c r="B56" s="1">
-        <v>120</v>
+        <v>210</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1062600</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Sotig (Esomeprazole 40mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1916200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+        <v>Surotadina (Rosuvastatin 10mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>55</v>
+        <v>192</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2090880</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Triglo (Fenofibrate 200mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>670</v>
+        <v>105</v>
+      </c>
+      <c r="C59" s="1">
+        <v>362250</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Trisova (Trimetazidine 20mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>30</v>
+        <v>180</v>
+      </c>
+      <c r="C60" s="1">
+        <v>351900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Vespratab kit (Clarithromycin, tinidazole, esomeprazole)</v>
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
       </c>
       <c r="B61" s="1">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4950000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Tyrozet (Metformin 850mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>1590</v>
+        <v>360</v>
+      </c>
+      <c r="C62" s="1">
+        <v>869400</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Vespratab kit (Clarithromycin, tinidazole, esomeprazole)</v>
       </c>
       <c r="B63" s="1">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2772000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>858</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4144140</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B64" s="1">
-        <v>19547</v>
-      </c>
-      <c r="C64" s="1">
-        <v>NaN</v>
+      <c r="B66" s="1">
+        <v>11140</v>
+      </c>
+      <c r="C66" s="1">
+        <v>85722365</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C64"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C66"/>
   </ignoredErrors>
 </worksheet>
 </file>